--- a/resources/experiment 1/metrics/MAPE/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Enfermedad renal terminal (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.205383640252233</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.2053836402522327</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2053836402522329</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.2053836402522329</v>
+        <v>0.205383640252233</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02306048732329634</v>
+        <v>0.02398204792323529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02297673858051545</v>
+        <v>0.02477136214647617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02297673858051545</v>
+        <v>0.04945056209067746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0182630019847976</v>
+        <v>0.02256747169237085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01826300198479759</v>
+        <v>0.0251526531094253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01826300198479759</v>
+        <v>0.05651174749734465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09668372653899086</v>
+        <v>0.01985224583206885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09670462560809023</v>
+        <v>0.02124911211142868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09670462560809023</v>
+        <v>0.02231792118752034</v>
       </c>
     </row>
   </sheetData>
